--- a/data/Moore_R100.xlsx
+++ b/data/Moore_R100.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="59">
   <si>
     <t>Correct;#Resets;#OQs;#EQs;#symbols;fileName;Algorithm;CEprocessing;Teacher;BB;</t>
   </si>
@@ -207,6 +207,18 @@
   </si>
   <si>
     <t>Quotient</t>
+  </si>
+  <si>
+    <t>../data/tests/sequences/Moore_R10_PDS.fsm</t>
+  </si>
+  <si>
+    <t>GoodSplit</t>
+  </si>
+  <si>
+    <t>maxLen:2</t>
+  </si>
+  <si>
+    <t>maxLen:2 + EQtoStop</t>
   </si>
 </sst>
 </file>
@@ -1141,8 +1153,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="189842176"/>
-        <c:axId val="189843712"/>
+        <c:axId val="11920128"/>
+        <c:axId val="11921664"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1212,11 +1224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="189855616"/>
-        <c:axId val="189853696"/>
+        <c:axId val="12191616"/>
+        <c:axId val="12189696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189842176"/>
+        <c:axId val="11920128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,7 +1237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189843712"/>
+        <c:crossAx val="11921664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1233,7 +1245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189843712"/>
+        <c:axId val="11921664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1244,12 +1256,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189842176"/>
+        <c:crossAx val="11920128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189853696"/>
+        <c:axId val="12189696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,12 +1289,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189855616"/>
+        <c:crossAx val="12191616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="189855616"/>
+        <c:axId val="12191616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,7 +1303,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189853696"/>
+        <c:crossAx val="12189696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1703,8 +1715,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190465536"/>
-        <c:axId val="190467072"/>
+        <c:axId val="12066816"/>
+        <c:axId val="12068352"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1774,11 +1786,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190483072"/>
-        <c:axId val="190481152"/>
+        <c:axId val="12076160"/>
+        <c:axId val="12069888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190465536"/>
+        <c:axId val="12066816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1787,7 +1799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190467072"/>
+        <c:crossAx val="12068352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1795,7 +1807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190467072"/>
+        <c:axId val="12068352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,12 +1818,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190465536"/>
+        <c:crossAx val="12066816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190481152"/>
+        <c:axId val="12069888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1839,12 +1851,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190483072"/>
+        <c:crossAx val="12076160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="190483072"/>
+        <c:axId val="12076160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,7 +1865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190481152"/>
+        <c:crossAx val="12069888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2265,8 +2277,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190187776"/>
-        <c:axId val="190197760"/>
+        <c:axId val="11997952"/>
+        <c:axId val="11999488"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2336,11 +2348,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190201216"/>
-        <c:axId val="190199296"/>
+        <c:axId val="12007296"/>
+        <c:axId val="12005376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190187776"/>
+        <c:axId val="11997952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2349,7 +2361,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190197760"/>
+        <c:crossAx val="11999488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2357,7 +2369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190197760"/>
+        <c:axId val="11999488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2368,12 +2380,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190187776"/>
+        <c:crossAx val="11997952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190199296"/>
+        <c:axId val="12005376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2395,19 +2407,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190201216"/>
+        <c:crossAx val="12007296"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="190201216"/>
+        <c:axId val="12007296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2416,7 +2427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190199296"/>
+        <c:crossAx val="12005376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2426,7 +2437,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2841,9 +2851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3857,6 +3869,64 @@
         <v>52</v>
       </c>
     </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>6315</v>
+      </c>
+      <c r="C33">
+        <v>6315</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>46043</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>3069</v>
+      </c>
+      <c r="C34">
+        <v>3069</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>21309</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Moore_R100.xlsx
+++ b/data/Moore_R100.xlsx
@@ -42,91 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="59">
-  <si>
-    <t>Correct;#Resets;#OQs;#EQs;#symbols;fileName;Algorithm;CEprocessing;Teacher;BB;</t>
-  </si>
-  <si>
-    <t>1;456;912;5;2598;../data/tests/sequences/Moore_R10_PDS.fsm;L*;addAllPrefixesToS;TeacherDFSM;;</t>
-  </si>
-  <si>
-    <t>1;342;677;8;1363;../data/tests/sequences/Moore_R10_PDS.fsm;L*;addSuffixAfterLastStateToE;TeacherDFSM;;</t>
-  </si>
-  <si>
-    <t>1;328;656;8;1324;../data/tests/sequences/Moore_R10_PDS.fsm;L*;addAllSuffixesAfterLastStateToE;TeacherDFSM;;</t>
-  </si>
-  <si>
-    <t>1;328;656;8;1324;../data/tests/sequences/Moore_R10_PDS.fsm;L*;addSuffix1by1ToE;TeacherDFSM;;</t>
-  </si>
-  <si>
-    <t>1;339;678;8;1356;../data/tests/sequences/Moore_R10_PDS.fsm;L*;addSuffixToE_binarySearch;TeacherDFSM;;</t>
-  </si>
-  <si>
-    <t>1;260;521;9;1063;../data/tests/sequences/Moore_R10_PDS.fsm;DT;;TeacherDFSM;;</t>
-  </si>
-  <si>
-    <t>1;621;1237;3;3009;../data/tests/sequences/Moore_R10_PDS.fsm;OP;AllGlobally;TeacherDFSM;;</t>
-  </si>
-  <si>
-    <t>1;504;999;5;2342;../data/tests/sequences/Moore_R10_PDS.fsm;OP;OneGlobally;TeacherDFSM;;</t>
-  </si>
-  <si>
-    <t>1;379;749;5;1586;../data/tests/sequences/Moore_R10_PDS.fsm;OP;OneLocally;TeacherDFSM;;</t>
-  </si>
-  <si>
-    <t>1;585;1170;6;3360;../data/tests/sequences/Moore_R10_PDS.fsm;L*;addAllPrefixesToS;TeacherRL;;</t>
-  </si>
-  <si>
-    <t>1;385;762;9;1513;../data/tests/sequences/Moore_R10_PDS.fsm;L*;addSuffixAfterLastStateToE;TeacherRL;;</t>
-  </si>
-  <si>
-    <t>1;369;738;9;1469;../data/tests/sequences/Moore_R10_PDS.fsm;L*;addAllSuffixesAfterLastStateToE;TeacherRL;;</t>
-  </si>
-  <si>
-    <t>1;369;738;9;1469;../data/tests/sequences/Moore_R10_PDS.fsm;L*;addSuffix1by1ToE;TeacherRL;;</t>
-  </si>
-  <si>
-    <t>1;382;764;9;1506;../data/tests/sequences/Moore_R10_PDS.fsm;L*;addSuffixToE_binarySearch;TeacherRL;;</t>
-  </si>
-  <si>
-    <t>1;260;521;9;1063;../data/tests/sequences/Moore_R10_PDS.fsm;DT;;TeacherRL;;</t>
-  </si>
-  <si>
-    <t>1;905;1805;5;5016;../data/tests/sequences/Moore_R10_PDS.fsm;OP;AllGlobally;TeacherRL;;</t>
-  </si>
-  <si>
-    <t>1;504;999;5;2342;../data/tests/sequences/Moore_R10_PDS.fsm;OP;OneGlobally;TeacherRL;;</t>
-  </si>
-  <si>
-    <t>1;379;749;5;1586;../data/tests/sequences/Moore_R10_PDS.fsm;OP;OneLocally;TeacherRL;;</t>
-  </si>
-  <si>
-    <t>1;1515;1040;6;7288;../data/tests/sequences/Moore_R10_PDS.fsm;L*;addAllPrefixesToS;TeacherBB:SPY_method (3 extra states);BlackBoxDFSM;</t>
-  </si>
-  <si>
-    <t>1;1418;592;7;7940;../data/tests/sequences/Moore_R10_PDS.fsm;L*;addSuffixAfterLastStateToE;TeacherBB:SPY_method (3 extra states);BlackBoxDFSM;</t>
-  </si>
-  <si>
-    <t>1;1529;820;7;7940;../data/tests/sequences/Moore_R10_PDS.fsm;L*;addAllSuffixesAfterLastStateToE;TeacherBB:SPY_method (3 extra states);BlackBoxDFSM;</t>
-  </si>
-  <si>
-    <t>1;1529;820;7;7940;../data/tests/sequences/Moore_R10_PDS.fsm;L*;addSuffix1by1ToE;TeacherBB:SPY_method (3 extra states);BlackBoxDFSM;</t>
-  </si>
-  <si>
-    <t>1;1422;606;7;7940;../data/tests/sequences/Moore_R10_PDS.fsm;L*;addSuffixToE_binarySearch;TeacherBB:SPY_method (3 extra states);BlackBoxDFSM;</t>
-  </si>
-  <si>
-    <t>1;1343;517;9;7726;../data/tests/sequences/Moore_R10_PDS.fsm;DT;;TeacherBB:SPY_method (3 extra states);BlackBoxDFSM;</t>
-  </si>
-  <si>
-    <t>1;1838;1655;3;8395;../data/tests/sequences/Moore_R10_PDS.fsm;OP;AllGlobally;TeacherBB:SPY_method (3 extra states);BlackBoxDFSM;</t>
-  </si>
-  <si>
-    <t>1;1596;1015;5;8336;../data/tests/sequences/Moore_R10_PDS.fsm;OP;OneGlobally;TeacherBB:SPY_method (3 extra states);BlackBoxDFSM;</t>
-  </si>
-  <si>
-    <t>1;1472;767;5;8181;../data/tests/sequences/Moore_R10_PDS.fsm;OP;OneLocally;TeacherBB:SPY_method (3 extra states);BlackBoxDFSM;</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="35">
   <si>
     <t>Correct</t>
   </si>
@@ -219,6 +135,18 @@
   </si>
   <si>
     <t>maxLen:2 + EQtoStop</t>
+  </si>
+  <si>
+    <t>../../data/tests/sequences/Moore_R100.fsm</t>
+  </si>
+  <si>
+    <t>ExtraStates: 1</t>
+  </si>
+  <si>
+    <t>OTree</t>
+  </si>
+  <si>
+    <t>ExtraStates: 1+confirm/identify</t>
   </si>
 </sst>
 </file>
@@ -1153,8 +1081,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="11920128"/>
-        <c:axId val="11921664"/>
+        <c:axId val="49601536"/>
+        <c:axId val="49677824"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1224,11 +1152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="12191616"/>
-        <c:axId val="12189696"/>
+        <c:axId val="131892352"/>
+        <c:axId val="49679744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11920128"/>
+        <c:axId val="49601536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11921664"/>
+        <c:crossAx val="49677824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1245,7 +1173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11921664"/>
+        <c:axId val="49677824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,12 +1184,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11920128"/>
+        <c:crossAx val="49601536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12189696"/>
+        <c:axId val="49679744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,12 +1217,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12191616"/>
+        <c:crossAx val="131892352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="12191616"/>
+        <c:axId val="131892352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12189696"/>
+        <c:crossAx val="49679744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1715,8 +1643,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="12066816"/>
-        <c:axId val="12068352"/>
+        <c:axId val="212894848"/>
+        <c:axId val="212896384"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1786,11 +1714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="12076160"/>
-        <c:axId val="12069888"/>
+        <c:axId val="251751040"/>
+        <c:axId val="251749120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="12066816"/>
+        <c:axId val="212894848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,7 +1727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12068352"/>
+        <c:crossAx val="212896384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1807,7 +1735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12068352"/>
+        <c:axId val="212896384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,12 +1746,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12066816"/>
+        <c:crossAx val="212894848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12069888"/>
+        <c:axId val="251749120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1851,12 +1779,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12076160"/>
+        <c:crossAx val="251751040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="12076160"/>
+        <c:axId val="251751040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,7 +1793,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12069888"/>
+        <c:crossAx val="251749120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2277,8 +2205,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="11997952"/>
-        <c:axId val="11999488"/>
+        <c:axId val="14203136"/>
+        <c:axId val="14213120"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2348,11 +2276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="12007296"/>
-        <c:axId val="12005376"/>
+        <c:axId val="14216576"/>
+        <c:axId val="14214656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11997952"/>
+        <c:axId val="14203136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2361,7 +2289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11999488"/>
+        <c:crossAx val="14213120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2369,7 +2297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11999488"/>
+        <c:axId val="14213120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2380,12 +2308,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11997952"/>
+        <c:crossAx val="14203136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12005376"/>
+        <c:axId val="14214656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,12 +2341,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12007296"/>
+        <c:crossAx val="14216576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="12007296"/>
+        <c:axId val="14216576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,7 +2355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12005376"/>
+        <c:crossAx val="14214656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2851,18 +2779,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -2871,42 +2798,39 @@
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2923,22 +2847,19 @@
         <v>40742</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2955,22 +2876,19 @@
         <v>27504</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2987,22 +2905,19 @@
         <v>27816</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3019,22 +2934,19 @@
         <v>27415</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3051,22 +2963,19 @@
         <v>27494</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3083,19 +2992,16 @@
         <v>18644</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3112,22 +3018,19 @@
         <v>38309</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3144,22 +3047,19 @@
         <v>36662</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3176,22 +3076,19 @@
         <v>24080</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3208,19 +3105,16 @@
         <v>21280</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3237,22 +3131,19 @@
         <v>40742</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3269,22 +3160,19 @@
         <v>27504</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3301,22 +3189,19 @@
         <v>27816</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3333,22 +3218,19 @@
         <v>27415</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3365,22 +3247,19 @@
         <v>27494</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3397,19 +3276,16 @@
         <v>18644</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3426,22 +3302,19 @@
         <v>60584</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
-      </c>
-      <c r="L18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3458,22 +3331,19 @@
         <v>36662</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3490,22 +3360,19 @@
         <v>24080</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
-      </c>
-      <c r="L20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3522,19 +3389,16 @@
         <v>42559</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
-      </c>
-      <c r="L21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3551,25 +3415,22 @@
         <v>77479</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
-      </c>
-      <c r="L22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3586,25 +3447,22 @@
         <v>74942</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
-      </c>
-      <c r="L23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3621,25 +3479,22 @@
         <v>74381</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
-      </c>
-      <c r="L24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3656,25 +3511,22 @@
         <v>73609</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>52</v>
-      </c>
-      <c r="L25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3691,25 +3543,22 @@
         <v>73610</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
-      </c>
-      <c r="L26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3726,22 +3575,19 @@
         <v>71575</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3758,25 +3604,22 @@
         <v>77720</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
-      </c>
-      <c r="L28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3793,22 +3636,22 @@
         <v>73853</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3825,22 +3668,22 @@
         <v>73198</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J30" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3857,19 +3700,19 @@
         <v>73195</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3886,19 +3729,19 @@
         <v>46043</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3915,16 +3758,196 @@
         <v>21309</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>2798</v>
+      </c>
+      <c r="C38">
+        <v>6337</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>20629</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>2798</v>
+      </c>
+      <c r="C39">
+        <v>6337</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>20629</v>
+      </c>
+      <c r="F39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>2798</v>
+      </c>
+      <c r="C40">
+        <v>6337</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>6337</v>
+      </c>
+      <c r="F40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>2627</v>
+      </c>
+      <c r="C41">
+        <v>5058</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>18344</v>
+      </c>
+      <c r="F41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>2627</v>
+      </c>
+      <c r="C42">
+        <v>5058</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>18344</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>2627</v>
+      </c>
+      <c r="C43">
+        <v>5058</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>5058</v>
+      </c>
+      <c r="F43" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/Moore_R100.xlsx
+++ b/data/Moore_R100.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="36">
   <si>
     <t>Correct</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>ExtraStates: 1+confirm/identify</t>
+  </si>
+  <si>
+    <t>ExtraStates: 1+confirm/identify+furtherQuerying</t>
   </si>
 </sst>
 </file>
@@ -1081,8 +1084,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49601536"/>
-        <c:axId val="49677824"/>
+        <c:axId val="12204672"/>
+        <c:axId val="12210560"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1152,11 +1155,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131892352"/>
-        <c:axId val="49679744"/>
+        <c:axId val="12214272"/>
+        <c:axId val="12212096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49601536"/>
+        <c:axId val="12204672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,7 +1168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49677824"/>
+        <c:crossAx val="12210560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1173,7 +1176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49677824"/>
+        <c:axId val="12210560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,12 +1187,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49601536"/>
+        <c:crossAx val="12204672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49679744"/>
+        <c:axId val="12212096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,12 +1220,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131892352"/>
+        <c:crossAx val="12214272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="131892352"/>
+        <c:axId val="12214272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49679744"/>
+        <c:crossAx val="12212096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1643,8 +1646,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212894848"/>
-        <c:axId val="212896384"/>
+        <c:axId val="12266496"/>
+        <c:axId val="12268288"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1714,11 +1717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="251751040"/>
-        <c:axId val="251749120"/>
+        <c:axId val="12272000"/>
+        <c:axId val="12269824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212894848"/>
+        <c:axId val="12266496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1727,7 +1730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212896384"/>
+        <c:crossAx val="12268288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1735,7 +1738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212896384"/>
+        <c:axId val="12268288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,12 +1749,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212894848"/>
+        <c:crossAx val="12266496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="251749120"/>
+        <c:axId val="12269824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1779,12 +1782,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251751040"/>
+        <c:crossAx val="12272000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="251751040"/>
+        <c:axId val="12272000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1793,7 +1796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251749120"/>
+        <c:crossAx val="12269824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2205,8 +2208,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="14203136"/>
-        <c:axId val="14213120"/>
+        <c:axId val="201297920"/>
+        <c:axId val="201299456"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2276,11 +2279,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="14216576"/>
-        <c:axId val="14214656"/>
+        <c:axId val="201303168"/>
+        <c:axId val="201300992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="14203136"/>
+        <c:axId val="201297920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,7 +2292,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="14213120"/>
+        <c:crossAx val="201299456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2297,7 +2300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14213120"/>
+        <c:axId val="201299456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,12 +2311,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="14203136"/>
+        <c:crossAx val="201297920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="14214656"/>
+        <c:axId val="201300992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2341,12 +2344,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="14216576"/>
+        <c:crossAx val="201303168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="14216576"/>
+        <c:axId val="201303168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2355,7 +2358,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="14214656"/>
+        <c:crossAx val="201300992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2779,10 +2782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:H48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3950,6 +3953,96 @@
         <v>24</v>
       </c>
     </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>1783</v>
+      </c>
+      <c r="C44">
+        <v>5496</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>14092</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>1783</v>
+      </c>
+      <c r="C45">
+        <v>5496</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>14092</v>
+      </c>
+      <c r="F45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>12739</v>
+      </c>
+      <c r="C46">
+        <v>5496</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>74320</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
